--- a/003.python_study/006.project/001.sql_approval/016.基线审核/002.TDSQL/【需求分析：TDSQL基线审核】.xlsx
+++ b/003.python_study/006.project/001.sql_approval/016.基线审核/002.TDSQL/【需求分析：TDSQL基线审核】.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="392">
   <si>
     <t>序号</t>
   </si>
@@ -55,36 +55,219 @@
     <t>当表结构变更时，使用*通配符选择所有列将导致查询行为会发生更改，与业务期望不符；同时select * 中的无用字段会带来不必要的磁盘I/O，以及网络开销，且无法覆盖索引进而回表，大幅度降低查询效率</t>
   </si>
   <si>
-    <t>禁止LIKE全模糊匹配</t>
+    <t>SELECT 嵌套层数不能超过 %s 层</t>
+  </si>
+  <si>
+    <t>当 SQL 查询的嵌套层数过多时，执行计划的生成可能变得复杂，导致优化器代价剧增与跨分片放大，影响稳定性。多层嵌套会增加数据库的查询负担，降低查询效率，因此建议限制嵌套层数，确保查询能够在合理的时间内执行完毕。</t>
+  </si>
+  <si>
+    <t>禁止（避免）使用count(*)</t>
+  </si>
+  <si>
+    <t>COUNT(*) 计算的是表中所有行的数量，通常它会扫描整个表，包括空值的行。这在大数据量的表中尤其会导致性能瓶颈。对于某些数据库，count(*) 的执行效率可能不如指定字段的 count(列名)。应改用count(1)或统计索引字段以提升性能。</t>
+  </si>
+  <si>
+    <t>使用 LIMIT 时未使用 ORDER BY</t>
+  </si>
+  <si>
+    <t>没有ORDER BY的LIMIT会导致非确定性的结果可能与业务需求不符，这取决于执行计划</t>
+  </si>
+  <si>
+    <t>SELECT 语句建议加 LIMIT</t>
+  </si>
+  <si>
+    <t>如果查询的扫描行数很大，可能会导致优化器选择错误的索引甚至不走索引。</t>
+  </si>
+  <si>
+    <t>别名不要与表或列的名字相同</t>
+  </si>
+  <si>
+    <t>表或列的别名与其真实名称相同, 这样的别名会使得查询更难去分辨</t>
+  </si>
+  <si>
+    <t>SQL 查询中的子查询总数量不能超过 %s 个</t>
+  </si>
+  <si>
+    <t>子查询的过多使用可能会导致查询变得难以优化，从而影响查询性能。每个子查询都需要额外的计算资源和内存，过多的子查询会加重数据库负担，降低系统的响应速度。为确保系统性能，建议限制 SQL 查询中的子查询数量。</t>
+  </si>
+  <si>
+    <t>避免使用标量子查询</t>
+  </si>
+  <si>
+    <t>select SQL中禁止使用标量子查询，标量子查询的SQL语句易产生性能问题</t>
+  </si>
+  <si>
+    <t>多表关联 JOIN 子句中涉及的表数量不能超过 %s 个</t>
+  </si>
+  <si>
+    <t>当一次查询涉及的表过多时，数据库需要进行更多的连接操作，可能导致查询的执行效率降低。因此，限制每个查询的最大关联表数量有助于提升查询的效率和可读性。</t>
+  </si>
+  <si>
+    <t>建议使用UNION ALL替代UNION</t>
+  </si>
+  <si>
+    <t>union会按照字段的顺序进行排序同时去重，union all只是简单的将两个结果合并后就返回，从效率上看，union all 要比union快很多；如果合并的两个结果集中允许包含重复数据且不需要排序时的话，建议开启此规则，使用union all替代union</t>
+  </si>
+  <si>
+    <t>不建议对同一张表进行多次连接</t>
+  </si>
+  <si>
+    <t>如果对单表查询多次，会导致查询性能下降。</t>
+  </si>
+  <si>
+    <t>绑定的变量个数不建议超过阈值</t>
+  </si>
+  <si>
+    <t>因为过度使用绑定变量会增加查询的复杂度，从而降低查询性能。过度使用绑定变量还会增加维护成本。默认阈值:100</t>
+  </si>
+  <si>
+    <t>避免使用 NULL 关键字</t>
+  </si>
+  <si>
+    <t>NULL在SQL中属于特殊值，无法与普通值进行比较。</t>
+  </si>
+  <si>
+    <t>避免使用 LIKE 全模糊匹配</t>
   </si>
   <si>
     <t>全模糊匹配会导致全表扫描，无法利用索引，从而降低查询效率，同时当数据表非常大时，执行全模糊匹配会消耗大量的计算资源，影响数据库的响应时间。</t>
   </si>
   <si>
+    <t>避免使用 LIKE 左模糊查询</t>
+  </si>
+  <si>
+    <t>%xxx'将导致索引失效与全表扫描，影响性能。</t>
+  </si>
+  <si>
+    <t>避免使用 OR 查询</t>
+  </si>
+  <si>
+    <t>OR 查询通常会导致数据库执行多个条件的检查，可能导致查询优化器无法有效地使用索引，特别是当涉及到多个列时。数据库可能需要扫描更多的记录来满足 OR 条件，导致查询效率下降。</t>
+  </si>
+  <si>
+    <t>避免使用 HAVING 子句</t>
+  </si>
+  <si>
+    <t>使用 HAVING 通常意味着在数据聚合之后做了复杂的计算。频繁使用 HAVING 可能意味着需要重新审视数据库设计，尤其是聚合数据的粒度、索引和数据过滤条件。</t>
+  </si>
+  <si>
+    <t>避免使用聚合函数</t>
+  </si>
+  <si>
+    <t>例如：LIMIT N OFFSET M 或 LIMIT M,N。当偏移量m过大的时候，查询效率会很低，因为TDSql是先查出m+n个数据，然后抛弃掉前m个数据；对于有大数据量的TDSql表来说，使用LIMIT分页存在很严重的性能问题。</t>
+  </si>
+  <si>
+    <t>IN（包括 NOT IN）列表元素个数不应超过 %s 个</t>
+  </si>
+  <si>
+    <t>应当限制 IN 子句中的元素数量，避免查询中过多的元素影响数据库的性能。如果 IN 列表的元素超过某个阈值（如 200 个），可以考虑使用 批量查询 或 连接表 来替代。</t>
+  </si>
+  <si>
+    <t>分页查询时避免使用OFFSET</t>
+  </si>
+  <si>
+    <t>条件字段做函数操作</t>
+  </si>
+  <si>
+    <t>在 SQL 语句的条件字段中使用函数通常会降低查询性能，并可能导致结果不可预测。因此，应尽可能避免这样做。</t>
+  </si>
+  <si>
+    <t>对条件字段使用负向查询</t>
+  </si>
+  <si>
+    <t>建议开启此规则，负向查询通常会对查询性能产生负面影响，应尽可能避免使用。</t>
+  </si>
+  <si>
+    <t>不建议在查询条件中使用表达式</t>
+  </si>
+  <si>
+    <t>在 SQL 语句的条件字段中使用表达式通常会降低查询性能，并可能导致结果不可预测。因此，应尽可能避免这样做。</t>
+  </si>
+  <si>
+    <t>禁止使用没有where条件的sql语句禁，止全表更新或删除</t>
+  </si>
+  <si>
+    <t>SQL缺少where条件在执行时会进行全表扫描产生额外开销，建议在大数据量高并发环境下开启，避免影响数据库查询性能。另外，执行更新或删除操作必须带WHERE条件。</t>
+  </si>
+  <si>
+    <t>建议批量插入不超过设定阈值</t>
+  </si>
+  <si>
+    <t>避免大事务，以及降低发生回滚对业务的影响；具体规则阈值可以根据业务需求调整。</t>
+  </si>
+  <si>
+    <t>检查 INSERT 语句是否未指定字段</t>
+  </si>
+  <si>
+    <t>建议开启此规则，指定要插入数据的列，可以提高代码的健壮性、可读性和可维护性，并降低数据错误的风险。</t>
+  </si>
+  <si>
+    <t>避免使用 INSERT ... SELECT</t>
+  </si>
+  <si>
+    <t>使用 INSERT ... SELECT 在默认事务隔离级别下，可能会导致对查询的表施加表级锁。</t>
+  </si>
+  <si>
+    <t>不建议使用 TRUNCATE 操作</t>
+  </si>
+  <si>
+    <t>TRUNCATE是DLL，数据不能回滚，在没有备份情况下，谨慎使用TRUNCATE</t>
+  </si>
+  <si>
+    <t>禁止除索引外的 drop 操作</t>
+  </si>
+  <si>
+    <t>DROP是DDL，无法进行回滚；建议开启此规则，避免误操作</t>
+  </si>
+  <si>
+    <t>禁止删除列</t>
+  </si>
+  <si>
+    <t>禁止删除列', '业务逻辑与删除列依赖未完全消除，列被删除后可能导致程序异常（无法正常读写）的情况。</t>
+  </si>
+  <si>
+    <t>DELETE 和 UPDATE 语句，必须带 where 条件，且条件不能恒等于 TRUE</t>
+  </si>
+  <si>
+    <t>update、delete语句缺少where条件，存在错误更新全表数据的风险，条件恒等于true也可能会带来额外的风险。</t>
+  </si>
+  <si>
+    <t>新建表建议加入 IF NOT EXISTS，保证重复执行不报错</t>
+  </si>
+  <si>
+    <t>新建表如果表已经存在，不添加IF NOT EXISTS CREATE执行SQL会报错，建议开启此规则，避免SQL实际执行报错</t>
+  </si>
+  <si>
+    <t>建表DDL必须包含创建时间字段且默认值为SYSDATE，创建时间字段名: CREATE_TIME</t>
+  </si>
+  <si>
+    <t>使用创建时间字段，有利于问题查找跟踪和检索数据，同时避免后期对数据生命周期管理不便，可保证时间的准确性，创建时间字段名：可配置，默认值为CREATE_TIME</t>
+  </si>
+  <si>
+    <t>建表DDL必须包含更新时间字段且默认值为SYSDATE</t>
+  </si>
+  <si>
+    <t>使用更新时间字段，有利于问题查找跟踪和检索数据，同时避免后期对数据生命周期管理不便，可保证时间的准确性，更新时间字段名</t>
+  </si>
+  <si>
+    <t>建表时，自增字段只能设置一个</t>
+  </si>
+  <si>
+    <t>TDSql InnoDB，MyISAM 引擎不允许存在多个自增字段，设置多个自增字段会导致上线失败。</t>
+  </si>
+  <si>
+    <t>DML语句中使用了order by</t>
+  </si>
+  <si>
+    <t>DML语句中使用了order by，有性能问题</t>
+  </si>
+  <si>
     <t>避免条件列类型不匹配导致隐式转换</t>
   </si>
   <si>
     <t>隐式转换会导致索引失效，应确保类型一致。</t>
   </si>
   <si>
-    <t>禁止使用没有where条件的sql语句禁，止全表更新或删除</t>
-  </si>
-  <si>
-    <t>SQL缺少where条件在执行时会进行全表扫描产生额外开销，建议在大数据量高并发环境下开启，避免影响数据库查询性能。另外，执行更新或删除操作必须带WHERE条件。</t>
-  </si>
-  <si>
-    <t>多表关联 JOIN 子句中涉及的表数量不能超过 %s 个</t>
-  </si>
-  <si>
-    <t>当一次查询涉及的表过多时，数据库需要进行更多的连接操作，可能导致查询的执行效率降低。因此，限制每个查询的最大关联表数量有助于提升查询的效率和可读性。</t>
-  </si>
-  <si>
-    <t>IN（包括 NOT IN）列表元素个数不应超过 %s 个</t>
-  </si>
-  <si>
-    <t>应当限制 IN 子句中的元素数量，避免查询中过多的元素影响数据库的性能。如果 IN 列表的元素超过某个阈值（如 200 个），可以考虑使用 批量查询 或 连接表 来替代。</t>
-  </si>
-  <si>
     <t>禁止访问系统表或V$视图</t>
   </si>
   <si>
@@ -103,28 +286,10 @@
     <t>!=、&lt;&gt;、IS NULL、NOT IN等查询会导致索引失效。</t>
   </si>
   <si>
-    <t>避免使用or条件</t>
-  </si>
-  <si>
-    <t>OR 查询通常会导致数据库执行多个条件的检查，可能导致查询优化器无法有效地使用索引，特别是当涉及到多个列时。数据库可能需要扫描更多的记录来满足 OR 条件，导致查询效率下降。</t>
-  </si>
-  <si>
     <t>避免条件字段算术运算</t>
   </si>
   <si>
     <t>对索引字段进行运算会导致索引失效。</t>
-  </si>
-  <si>
-    <t>禁止使用having子句过滤</t>
-  </si>
-  <si>
-    <t>应使用where条件代替having以优化性能。</t>
-  </si>
-  <si>
-    <t>禁止使用count(*)</t>
-  </si>
-  <si>
-    <t>COUNT(*) 计算的是表中所有行的数量，通常它会扫描整个表，包括空值的行。这在大数据量的表中尤其会导致性能瓶颈。对于某些数据库，count(*) 的执行效率可能不如指定字段的 count(列名)。应改用count(1)或统计索引字段以提升性能。</t>
   </si>
   <si>
     <t>禁止JOIN 1000W以上的大表</t>
@@ -170,21 +335,6 @@
     <t>该语义影响调度与一致性，分布式不支持或不推荐使用。</t>
   </si>
   <si>
-    <t>SELECT 嵌套层数不能超过 %s 层</t>
-  </si>
-  <si>
-    <t>当 SQL 查询的嵌套层数过多时，执行计划的生成可能变得复杂，导致优化器代价剧增与跨分片放大，影响稳定性。多层嵌套会增加数据库的查询负担，降低查询效率，因此建议限制嵌套层数，确保查询能够在合理的时间内执行完毕。</t>
-  </si>
-  <si>
-    <t>max_subquery_depth=3</t>
-  </si>
-  <si>
-    <t>禁止在OLTP库执行复杂统计与模糊检索</t>
-  </si>
-  <si>
-    <t>避免长耗时聚合/模糊查询拖慢关键交易链路。</t>
-  </si>
-  <si>
     <t>INSERT/REPLACE必须包含分片键字段</t>
   </si>
   <si>
@@ -203,30 +353,6 @@
     <t>跨表更新在分布式下路由复杂且影响一致性，应拆分执行。</t>
   </si>
   <si>
-    <t>禁止左模糊查询</t>
-  </si>
-  <si>
-    <t>%xxx'将导致索引失效与全表扫描，影响性能。</t>
-  </si>
-  <si>
-    <t>禁止全模糊查询</t>
-  </si>
-  <si>
-    <t>%xxx%'将导致索引失效与全表扫描，影响性能。</t>
-  </si>
-  <si>
-    <t>关键链路JOIN不超过2表，非关键不超过3表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">限制多表JOIN可减少跨分片代价与执行不确定性。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_join_tables_core=2,
-max_join_tables_noncore=3
-</t>
-  </si>
-  <si>
     <t>WHERE索引列禁止参与计算/函数/隐式转换/与无索引OR</t>
   </si>
   <si>
@@ -266,15 +392,111 @@
     <t>缩短列长度可能导致数据截断与写入失败，存在高风险。</t>
   </si>
   <si>
+    <t>DDL语句中不建议使用中文全角引号</t>
+  </si>
+  <si>
+    <t>建议开启此规则，可避免TDSql会将中文全角引号识别为命名的一部分，执行结果与业务预期不符</t>
+  </si>
+  <si>
+    <t>建议使用指定数据库引擎,默认存储引擎必须为 InnoDB</t>
+  </si>
+  <si>
+    <t>InnoDB支持事务、行级锁及崩溃恢复机制，能保证数据一致性与高可用性，应统一使用该引擎。</t>
+  </si>
+  <si>
+    <t>engine=InnoDB</t>
+  </si>
+  <si>
+    <t>禁止使用全文索引</t>
+  </si>
+  <si>
+    <t>全文索引资源消耗高且性能不可控，应使用外部搜索引擎替代。</t>
+  </si>
+  <si>
+    <t>禁止使用空间字段和空间索引</t>
+  </si>
+  <si>
+    <t>使用空间字段和空间索引会增加存储需求，对数据库性能造成一定影响</t>
+  </si>
+  <si>
+    <t>禁止使用event</t>
+  </si>
+  <si>
+    <t>使用event会增加数据库的维护难度和依赖性</t>
+  </si>
+  <si>
+    <t>数据库表名必须以开头 %s 开头</t>
+  </si>
+  <si>
+    <t>统一表名前缀可提高系统可读性与对象识别度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tb_ </t>
+  </si>
+  <si>
+    <t>TIMESTAMP 类型的列必须添加默认值</t>
+  </si>
+  <si>
+    <t>TIMESTAMP添加默认值，可避免出现全为0的日期格式与业务预期不符</t>
+  </si>
+  <si>
+    <t>不建议使用 SET 类型','集合的修改需要重新定义列</t>
+  </si>
+  <si>
+    <t>集合的修改需要重新定义列，后期修改的代价大，建议在业务层实现</t>
+  </si>
+  <si>
+    <t>不建议使用 ENUM 类型</t>
+  </si>
+  <si>
+    <t>ENUM类型不是SQL标准，移植性较差，后期如修改或增加枚举值需重建整张表，代价较大，且无法通过字面量值进行排序</t>
+  </si>
+  <si>
+    <t>不建议使用 BLOB 或 TEXT 类型</t>
+  </si>
+  <si>
+    <t>BLOB 或 TEXT 类型消耗大量的网络和IO带宽，同时在该表上的DML操作都会变得很慢</t>
+  </si>
+  <si>
+    <t>BLOB 和 TEXT 类型的字段默认值只能为NULL</t>
+  </si>
+  <si>
+    <t>在SQL_MODE严格模式下BLOB 和 TEXT 类型无法设置默认值，如插入数据不指定值，字段会被设置为NULL</t>
+  </si>
+  <si>
+    <t>禁止char, varchar类型字段字符长度总和超过阈值</t>
+  </si>
+  <si>
+    <t>使用过长或者过多的varchar，char字段可能会增加业务逻辑的复杂性</t>
+  </si>
+  <si>
+    <t>列建议添加注释</t>
+  </si>
+  <si>
+    <t>列添加注释能够使表的意义更明确，方便日后的维护</t>
+  </si>
+  <si>
+    <t>建议使用DATE替代TIMESTAMP类型</t>
+  </si>
+  <si>
+    <t>TIMESTAMP数据类型消耗的空间远大于DATE，如果没有很高的时间精度要求，建议使用DATE类型</t>
+  </si>
+  <si>
+    <t>表字段建议有NOT NULL约束</t>
+  </si>
+  <si>
+    <t>表字段建议有 NOT NULL 约束，可确保数据的完整性，防止插入空值，提升查询准确性。</t>
+  </si>
+  <si>
+    <t>建议用BIGINT类型代替DECIMAL</t>
+  </si>
+  <si>
+    <t>因为CPU不支持对DECIMAL的直接运算，只是TDSql自身实现了DECIMAL的高精度计算，但是计算代价高，并且存储同样范围值的时候，空间占用也更多。</t>
+  </si>
+  <si>
     <t>命名规范</t>
   </si>
   <si>
-    <t>数据库表名必须以tb_开头</t>
-  </si>
-  <si>
-    <t>统一表名前缀可提高系统可读性与对象识别度。</t>
-  </si>
-  <si>
     <t>数据库视图名必须以v_开头</t>
   </si>
   <si>
@@ -356,187 +578,292 @@
     <t>主键能唯一标识记录，是数据库设计的基本要求。</t>
   </si>
   <si>
-    <t>表中列数不得超过255列</t>
-  </si>
-  <si>
-    <t>限制表字段数量以保持结构清晰和性能稳定。</t>
+    <t>列名设计应使用下划线分隔</t>
+  </si>
+  <si>
+    <t>使用下划线可增强命名可读性与一致性。</t>
+  </si>
+  <si>
+    <t>库名、表名、列名不得超过32个字符</t>
+  </si>
+  <si>
+    <t>控制对象命名长度，保证数据库兼容性与可维护性。</t>
+  </si>
+  <si>
+    <t>max_length=32</t>
+  </si>
+  <si>
+    <t>库名、表名、列名不得使用MySQL保留字</t>
+  </si>
+  <si>
+    <t>禁止使用保留字避免DDL执行错误。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">库名必须为英文小写且长度不超过32个字符，不得含中文或非法字符  </t>
+  </si>
+  <si>
+    <t>统一命名规范并限制库名长度可避免跨环境迁移和编码不兼容问题，确保数据库对象命名规范与可维护性。</t>
+  </si>
+  <si>
+    <t>数据库对象命名只能使用英文、下划线或数字，首字母必须是英文</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的数据对象命名规则</t>
+  </si>
+  <si>
+    <t>数据库对象名称长度不得超过128个字符</t>
+  </si>
+  <si>
+    <t>限制对象名称长度防止系统兼容问题。</t>
+  </si>
+  <si>
+    <t>max_length=128</t>
+  </si>
+  <si>
+    <t>数据库对象命名禁止使用关键字</t>
+  </si>
+  <si>
+    <t>避免发生冲突，以及混淆</t>
+  </si>
+  <si>
+    <t>数据库对象命名不建议大小写字母混合</t>
+  </si>
+  <si>
+    <t>数据库对象命名规范，不推荐采用大小写混用的形式建议词语之间使用下划线连接，提高代码可读性</t>
+  </si>
+  <si>
+    <t>索引规范</t>
+  </si>
+  <si>
+    <t>单表索引数量不得超过5个</t>
+  </si>
+  <si>
+    <t>过多索引会增加写入延迟与空间开销，应控制在合理范围。</t>
+  </si>
+  <si>
+    <t>max_index_count=5</t>
+  </si>
+  <si>
+    <t>不建议使用位图索引</t>
+  </si>
+  <si>
+    <t>位图索引不适合高并发OLTP场景，可能引发性能问题。</t>
+  </si>
+  <si>
+    <t>不使用函数索引</t>
+  </si>
+  <si>
+    <t>函数索引可能导致性能下降及迁移不兼容。</t>
+  </si>
+  <si>
+    <t>普通索引必须使用固定前缀</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的索引命名规则，具体命名规范可以自定义设置，默认提示值：idx_</t>
+  </si>
+  <si>
+    <t>检查冗余索引</t>
+  </si>
+  <si>
+    <t>清理重复索引可减少存储开销和写入锁竞争。</t>
+  </si>
+  <si>
+    <t>索引命名规则必须符合“前缀+字段”格式</t>
+  </si>
+  <si>
+    <t>统一索引命名可提升可读性与维护效率，避免重复索引。</t>
+  </si>
+  <si>
+    <t>单表索引数量不超过5个</t>
+  </si>
+  <si>
+    <t>索引过多会影响写入性能，应保持合理数量。</t>
+  </si>
+  <si>
+    <t>检查复合索引列的选择性是否合理</t>
+  </si>
+  <si>
+    <t>确保复合索引按列区分度从高到低排列以提高查询效率。</t>
+  </si>
+  <si>
+    <t>复合索引的列数量不建议超过阈值</t>
+  </si>
+  <si>
+    <t>复合索引会根据索引列数创建对应组合的索引，列数越多，创建的索引越多，每个索引都会增加磁盘空间的开销，同时增加索引维护的开销，默认值：3</t>
+  </si>
+  <si>
+    <t>索引列区分度低</t>
+  </si>
+  <si>
+    <t>建索引的列中整体的区分度低，区分度阈值不低于60%</t>
+  </si>
+  <si>
+    <t>小表行数少于1000不创建索引</t>
+  </si>
+  <si>
+    <t>小数据量表无需索引可降低维护成本。</t>
+  </si>
+  <si>
+    <t>min_rows_for_index=1000</t>
+  </si>
+  <si>
+    <t>外键字段必须建立索引</t>
+  </si>
+  <si>
+    <t>为外键添加索引以加速关联查询并防止锁表。</t>
+  </si>
+  <si>
+    <t>禁止使用MyISAM引擎</t>
+  </si>
+  <si>
+    <t>MyISAM不支持事务与行锁，在高并发环境下存在数据损坏风险，应禁用。</t>
+  </si>
+  <si>
+    <t>禁止使用存储过程、触发器、视图、游标</t>
+  </si>
+  <si>
+    <t>此类对象降低系统可移植性与可控性，增加维护复杂度，应禁用。</t>
+  </si>
+  <si>
+    <t>避免使用存储过程</t>
+  </si>
+  <si>
+    <t>复杂逻辑应在应用层实现，减少数据库耦合。</t>
+  </si>
+  <si>
+    <t>避免使用触发器</t>
+  </si>
+  <si>
+    <t>触发器不利于排错与性能优化，应避免使用。</t>
+  </si>
+  <si>
+    <t>避免使用函数</t>
+  </si>
+  <si>
+    <t>函数难以统一管理且可能降低查询效率。</t>
+  </si>
+  <si>
+    <t>不建议使用database link</t>
+  </si>
+  <si>
+    <t>跨库链接会导致事务一致性风险与性能损耗。</t>
+  </si>
+  <si>
+    <t>sequence创建时cache值应大于10000</t>
+  </si>
+  <si>
+    <t>增加序列缓存可减少磁盘IO提升生成性能。</t>
+  </si>
+  <si>
+    <t>cache_min=10000</t>
+  </si>
+  <si>
+    <t>表必须有主键且主键值禁止更新</t>
+  </si>
+  <si>
+    <t>主键唯一标识记录，防止更新主键可保证数据完整性与索引稳定性。</t>
+  </si>
+  <si>
+    <t>避免使用外键</t>
+  </si>
+  <si>
+    <t>外键虽然能够保证数据的完整性，但在高并发或分布式环境中会带来性能开销和锁依赖问题。</t>
+  </si>
+  <si>
+    <t>避免使用NUMBER类型</t>
+  </si>
+  <si>
+    <t>推荐使用MySQL兼容数据类型如DECIMAL或BIGINT以保持兼容性。</t>
+  </si>
+  <si>
+    <t>禁止使用外键约束</t>
+  </si>
+  <si>
+    <t>外键增加事务开销并限制分布式扩展，应在应用层控制数据一致性。</t>
+  </si>
+  <si>
+    <t>建表必须显式指定字符集为utf8mb4</t>
+  </si>
+  <si>
+    <t>统一字符集可避免乱码问题并兼容多语言环境。</t>
+  </si>
+  <si>
+    <t>禁止列级自定义字符集与排序规则</t>
+  </si>
+  <si>
+    <t>列级字符集与表级不一致会造成比较异常，应统一使用表级默认字符集。</t>
+  </si>
+  <si>
+    <t>货币字段禁止使用float或double</t>
+  </si>
+  <si>
+    <t>float/double存在精度误差，应使用decimal或整数存储金额。</t>
+  </si>
+  <si>
+    <t>禁止活跃表中使用BLOB、TEXT或VARCHAR(&gt;500)类型字段</t>
+  </si>
+  <si>
+    <t>大字段在频繁访问表中会严重影响缓存与I/O性能，应拆分到独立表中存储。</t>
+  </si>
+  <si>
+    <t>禁止char, varchar 类型字段字符长度总和超过阈值</t>
+  </si>
+  <si>
+    <t>使用过长或者过多的varchar，char字段可能会增加业务逻辑的复杂性。</t>
+  </si>
+  <si>
+    <t>在SQL_MODE严格模式下BLOB 和 TEXT 类型无法设置默认值，如插入数据定值，字段会被设置为NULL</t>
+  </si>
+  <si>
+    <t>使用TEXT 类型的字段建议和原表进行分拆，与原表主键单独组成另外一个表进行存放</t>
+  </si>
+  <si>
+    <t>将TEXT类型的字段与原表主键分拆成另一个表可以提高数据库性能和查询速度，减少不必要的 I/O 操作。</t>
+  </si>
+  <si>
+    <t>char长度大于20时，必须使用varchar类型</t>
+  </si>
+  <si>
+    <t>varchar是变长字段，存储空间小，可节省存储空间，同时相对较小的字段检索效率显然也要高些</t>
+  </si>
+  <si>
+    <t>表建议使用主键</t>
+  </si>
+  <si>
+    <t>主键有利于后期数据维护，且可提高SQL的执行效率</t>
+  </si>
+  <si>
+    <t>表的初始 AUTO_INCREMENT 值建议为0</t>
+  </si>
+  <si>
+    <t>创建表时AUTO_INCREMENT设置为0则自增从1开始，可以避免数据空洞。</t>
+  </si>
+  <si>
+    <t>建议数据库名称使用固定后缀结尾</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的数据库命名规则，具体命名规范可以自定义设置，默认提示值：_DB</t>
+  </si>
+  <si>
+    <t>表名、列名、索引名的长度不能大于指定字节</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的对象命名长度，具体长度可以自定义设置，默认最大长度：64</t>
+  </si>
+  <si>
+    <t>表中列数不得超过 %d 列</t>
+  </si>
+  <si>
+    <t>过度的宽表，会造成数据的大量冗余，后期对性能影响很大，限制表字段数量以保持结构清晰和性能稳定。</t>
   </si>
   <si>
     <t>max_columns=255</t>
   </si>
   <si>
-    <t>列名设计应使用下划线分隔</t>
-  </si>
-  <si>
-    <t>使用下划线可增强命名可读性与一致性。</t>
-  </si>
-  <si>
-    <t>库名、表名、列名不得超过32个字符</t>
-  </si>
-  <si>
-    <t>控制对象命名长度，保证数据库兼容性与可维护性。</t>
-  </si>
-  <si>
-    <t>max_length=32</t>
-  </si>
-  <si>
-    <t>库名、表名、列名不得使用MySQL保留字</t>
-  </si>
-  <si>
-    <t>禁止使用保留字避免DDL执行错误。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">库名必须为英文小写且长度不超过32个字符，不得含中文或非法字符  </t>
-  </si>
-  <si>
-    <t>统一命名规范并限制库名长度可避免跨环境迁移和编码不兼容问题，确保数据库对象命名规范与可维护性。</t>
-  </si>
-  <si>
-    <t>数据库对象名称长度不得超过128个字符</t>
-  </si>
-  <si>
-    <t>限制对象名称长度防止系统兼容问题。</t>
-  </si>
-  <si>
-    <t>max_length=128</t>
-  </si>
-  <si>
-    <t>索引规范</t>
-  </si>
-  <si>
-    <t>单表索引数量不得超过5个</t>
-  </si>
-  <si>
-    <t>过多索引会增加写入延迟与空间开销，应控制在合理范围。</t>
-  </si>
-  <si>
-    <t>max_index_count=5</t>
-  </si>
-  <si>
-    <t>不建议使用位图索引</t>
-  </si>
-  <si>
-    <t>位图索引不适合高并发OLTP场景，可能引发性能问题。</t>
-  </si>
-  <si>
-    <t>不使用函数索引</t>
-  </si>
-  <si>
-    <t>函数索引可能导致性能下降及迁移不兼容。</t>
-  </si>
-  <si>
-    <t>检查冗余索引</t>
-  </si>
-  <si>
-    <t>清理重复索引可减少存储开销和写入锁竞争。</t>
-  </si>
-  <si>
-    <t>禁止使用全文索引</t>
-  </si>
-  <si>
-    <t>全文索引资源消耗高且性能不可控，应使用外部搜索引擎替代。</t>
-  </si>
-  <si>
-    <t>索引命名规则必须符合“前缀+字段”格式</t>
-  </si>
-  <si>
-    <t>统一索引命名可提升可读性与维护效率，避免重复索引。</t>
-  </si>
-  <si>
-    <t>单表索引数量不超过5个</t>
-  </si>
-  <si>
-    <t>索引过多会影响写入性能，应保持合理数量。</t>
-  </si>
-  <si>
-    <t>检查复合索引列的选择性是否合理</t>
-  </si>
-  <si>
-    <t>确保复合索引按列区分度从高到低排列以提高查询效率。</t>
-  </si>
-  <si>
-    <t>小表行数少于1000不创建索引</t>
-  </si>
-  <si>
-    <t>小数据量表无需索引可降低维护成本。</t>
-  </si>
-  <si>
-    <t>min_rows_for_index=1000</t>
-  </si>
-  <si>
-    <t>外键字段必须建立索引</t>
-  </si>
-  <si>
-    <t>为外键添加索引以加速关联查询并防止锁表。</t>
-  </si>
-  <si>
-    <t>禁止活跃表中使用BLOB、TEXT或VARCHAR(&gt;500)类型字段</t>
-  </si>
-  <si>
-    <t>大字段在频繁访问表中会严重影响缓存与I/O性能，应拆分到独立表中存储。</t>
-  </si>
-  <si>
-    <t>max_varchar_length=500</t>
-  </si>
-  <si>
-    <t>BLOB 和 TEXT 类型的字段默认值只能为NULL</t>
-  </si>
-  <si>
-    <t>在SQL_MODE严格模式下BLOB 和 TEXT 类型无法设置默认值，如插入数据不指定值，字段会被设置为NULL</t>
-  </si>
-  <si>
-    <t>默认存储引擎必须为InnoDB</t>
-  </si>
-  <si>
-    <t>InnoDB支持事务、行级锁及崩溃恢复机制，能保证数据一致性与高可用性，应统一使用该引擎。</t>
-  </si>
-  <si>
-    <t>engine=InnoDB</t>
-  </si>
-  <si>
-    <t>禁止使用MyISAM引擎</t>
-  </si>
-  <si>
-    <t>MyISAM不支持事务与行锁，在高并发环境下存在数据损坏风险，应禁用。</t>
-  </si>
-  <si>
-    <t>禁止使用存储过程、触发器、视图、游标</t>
-  </si>
-  <si>
-    <t>此类对象降低系统可移植性与可控性，增加维护复杂度，应禁用。</t>
-  </si>
-  <si>
-    <t>避免使用存储过程</t>
-  </si>
-  <si>
-    <t>复杂逻辑应在应用层实现，减少数据库耦合。</t>
-  </si>
-  <si>
-    <t>避免使用触发器</t>
-  </si>
-  <si>
-    <t>触发器不利于排错与性能优化，应避免使用。</t>
-  </si>
-  <si>
-    <t>避免使用函数</t>
-  </si>
-  <si>
-    <t>函数难以统一管理且可能降低查询效率。</t>
-  </si>
-  <si>
-    <t>不建议使用database link</t>
-  </si>
-  <si>
-    <t>跨库链接会导致事务一致性风险与性能损耗。</t>
-  </si>
-  <si>
-    <t>sequence创建时cache值应大于10000</t>
-  </si>
-  <si>
-    <t>增加序列缓存可减少磁盘IO提升生成性能。</t>
-  </si>
-  <si>
-    <t>cache_min=10000</t>
+    <t>主键包含的列数不建议超过阈值</t>
+  </si>
+  <si>
+    <t>主建中的列过多，会导致二级索引占用更多的空间，同时增加索引维护的开销；具体规则阈值可根据业务需求调整，默认值：2</t>
   </si>
   <si>
     <t>规范描述</t>
@@ -706,65 +1033,6 @@
     <t>确保分区表具备合理的分片键设计以实现负载均衡。</t>
   </si>
   <si>
-    <t>表必须有主键且主键值禁止更新</t>
-  </si>
-  <si>
-    <t>主键唯一标识记录，防止更新主键可保证数据完整性与索引稳定性。</t>
-  </si>
-  <si>
-    <t>避免使用外键</t>
-  </si>
-  <si>
-    <t>业务逻辑应在应用层控制外键关系，避免跨库约束带来的性能损耗。</t>
-  </si>
-  <si>
-    <t>避免使用NUMBER类型</t>
-  </si>
-  <si>
-    <t>推荐使用MySQL兼容数据类型如DECIMAL或BIGINT以保持兼容性。</t>
-  </si>
-  <si>
-    <t>建议用BIGINT类型代替DECIMAL</t>
-  </si>
-  <si>
-    <t>因为CPU不支持对DECIMAL的直接运算，只是TDSql自身实现了DECIMAL的高精度计算，但是计算代价高，并且存储同样范围值的时候，空间占用也更多。</t>
-  </si>
-  <si>
-    <t>禁止使用外键约束</t>
-  </si>
-  <si>
-    <t>外键增加事务开销并限制分布式扩展，应在应用层控制数据一致性。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建表必须显式指定字符集为utf8mb4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">统一字符集可避免乱码问题并兼容多语言环境。
-</t>
-  </si>
-  <si>
-    <t>charset=utf8mb4</t>
-  </si>
-  <si>
-    <t>禁止列级自定义字符集与排序规则</t>
-  </si>
-  <si>
-    <t>列级字符集与表级不一致会造成比较异常，应统一使用表级默认字符集。</t>
-  </si>
-  <si>
-    <t>禁止使用enum与set类型</t>
-  </si>
-  <si>
-    <t>enum/set类型扩展需DDL操作，修改风险高，应使用tinyint或smallint代替。</t>
-  </si>
-  <si>
-    <t>货币字段禁止使用float或double</t>
-  </si>
-  <si>
-    <t>float/double存在精度误差，应使用decimal或整数存储金额。</t>
-  </si>
-  <si>
     <t>系统服务与优化</t>
   </si>
   <si>
@@ -884,6 +1152,9 @@
   </si>
   <si>
     <t>字符集必须使用 UTF8MB4</t>
+  </si>
+  <si>
+    <t>charset=utf8mb4</t>
   </si>
   <si>
     <t>统一字符集避免编码混乱与兼容性问题。</t>
@@ -1103,7 +1374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,12 +1402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1776,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1535,16 +1800,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11">
@@ -1553,89 +1818,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1660,79 +1925,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2049,19 +2287,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.6194690265487" customWidth="1"/>
     <col min="2" max="2" width="22.5752212389381" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="43.6814159292035" customWidth="1"/>
-    <col min="5" max="5" width="32.2654867256637" customWidth="1"/>
+    <col min="3" max="3" width="51.9646017699115" customWidth="1"/>
+    <col min="4" max="4" width="90.0796460176991" customWidth="1"/>
+    <col min="5" max="5" width="52.2477876106195" customWidth="1"/>
     <col min="6" max="6" width="14.8761061946903" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2082,453 +2320,770 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:5">
+    <row r="2" ht="56" customHeight="1" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="54" spans="1:5">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="56" customHeight="1" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" ht="19" customHeight="1" spans="1:5">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="54" spans="1:5">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="54" spans="1:5">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="54" spans="1:5">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:5">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="19" customHeight="1" spans="1:5">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="27" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="54" spans="1:5">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" ht="17" customHeight="1" spans="1:5">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" ht="27" spans="1:5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" ht="67.5" spans="1:5">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" ht="25" customHeight="1" spans="1:5">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" ht="27" spans="1:5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="1:5">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="27" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" ht="27" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" ht="27" spans="1:5">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" ht="40.5" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" ht="27" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="67.5" spans="1:5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" ht="40.5" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" ht="27" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="32"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" ht="27" spans="1:5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" ht="27" spans="1:5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="3"/>
+      <c r="C26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="27" spans="1:5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" ht="40.5" spans="1:5">
+      <c r="B27" s="3"/>
+      <c r="C27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" ht="27" spans="1:5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" ht="27" spans="1:5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" ht="27" spans="1:5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" ht="27" spans="1:5">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" ht="27" spans="1:5">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" ht="27" spans="1:5">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D37" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" ht="17" customHeight="1" spans="1:5">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" ht="19" customHeight="1" spans="1:5">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" ht="17" customHeight="1" spans="1:5">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" ht="25" customHeight="1" spans="1:5">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" ht="27" customHeight="1" spans="1:5">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:5">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B29"/>
-    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B2:B53"/>
+    <mergeCell ref="B54:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2539,17 +3094,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="$A43:$XFD44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="22.9026548672566" customWidth="1"/>
     <col min="3" max="3" width="49.5044247787611" customWidth="1"/>
-    <col min="4" max="4" width="59.1238938053097" customWidth="1"/>
+    <col min="4" max="4" width="70.5132743362832" customWidth="1"/>
     <col min="5" max="5" width="44.3716814159292" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2570,565 +3125,1004 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27">
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="12"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="12"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="27">
+      <c r="B8" s="17"/>
+      <c r="C8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="27" spans="1:5">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="27" spans="1:5">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="27" spans="1:5">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" ht="27" spans="1:5">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" ht="27" spans="1:5">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" ht="27" spans="1:5">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" ht="27" spans="1:5">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:5">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" ht="27" spans="1:5">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" ht="27" spans="1:5">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" ht="27" spans="1:5">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="27">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="27">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="27">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="27">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="27">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="27">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="27">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="27">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" ht="27" spans="1:5">
-      <c r="A20" s="27">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="27">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="27">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="27">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="27">
-        <v>23</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="27">
-        <v>24</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="27">
-        <v>25</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="27">
-        <v>27</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="27">
-        <v>28</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="27">
-        <v>29</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="12" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" ht="27" spans="1:5">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" ht="27" spans="1:5">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="27">
-        <v>30</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="27">
-        <v>31</v>
-      </c>
-      <c r="B32" s="28" t="s">
+      <c r="D66" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" ht="27" spans="1:5">
+      <c r="A67" s="13">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" ht="27" spans="1:5">
-      <c r="A33" s="27">
-        <v>32</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:5">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" ht="27" spans="1:5">
-      <c r="A35" s="27">
-        <v>38</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="17" t="s">
+      <c r="B67" s="17"/>
+      <c r="C67" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" ht="27" spans="1:5">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" ht="27" spans="1:5">
+      <c r="A69" s="13">
+        <v>68</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D69" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:5">
-      <c r="A36" s="27">
-        <v>39</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="27">
-        <v>40</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="27">
-        <v>41</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="27">
-        <v>42</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="27">
-        <v>43</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="27">
-        <v>45</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="27">
-        <v>46</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>167</v>
-      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13">
+        <v>69</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" ht="27" spans="1:5">
+      <c r="A72" s="13">
+        <v>71</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" ht="27" spans="1:5">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" ht="27" spans="1:5">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="1:5">
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E75" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B32:B42"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="B17:B37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="B50:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3139,10 +4133,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3152,7 +4146,7 @@
     <col min="4" max="4" width="38.3716814159292" customWidth="1"/>
     <col min="5" max="5" width="45.7079646017699" customWidth="1"/>
     <col min="6" max="6" width="43.8141592920354" customWidth="1"/>
-    <col min="7" max="7" width="75.1681415929203" customWidth="1"/>
+    <col min="7" max="7" width="85.5132743362832" customWidth="1"/>
     <col min="8" max="8" width="20.716814159292" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3167,16 +4161,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" ht="64" customHeight="1" spans="1:7">
@@ -3184,22 +4178,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" ht="67" customHeight="1" spans="1:7">
@@ -3208,13 +4202,13 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" ht="68" customHeight="1" spans="1:7">
@@ -3222,22 +4216,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:7">
@@ -3246,13 +4240,13 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:7">
@@ -3261,13 +4255,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -3276,615 +4270,488 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:7">
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>195</v>
+      <c r="B8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="9">
+        <v>306</v>
+      </c>
+      <c r="F8" s="8">
         <v>50000000</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="6" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="6" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="6" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="6" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>218</v>
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>220</v>
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" ht="27" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" ht="27" customHeight="1" spans="1:7">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" ht="27" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:7">
+      <c r="A18" s="3">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" ht="31" customHeight="1" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" ht="25" customHeight="1" spans="1:7">
+      <c r="A20" s="3">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" ht="19" customHeight="1" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" ht="25" customHeight="1" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="1:7">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" ht="23" customHeight="1" spans="1:7">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" ht="19" customHeight="1" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="1" spans="1:7">
+      <c r="A25" s="3">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" ht="25" customHeight="1" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>246</v>
+        <v>367</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" ht="31" customHeight="1" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="1:7">
+      <c r="A28" s="3">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="E28" s="5" t="s">
-        <v>173</v>
+        <v>372</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" ht="25" customHeight="1" spans="1:7">
-      <c r="A29" s="3">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>251</v>
-      </c>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" ht="28" customHeight="1" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
-        <v>252</v>
+        <v>375</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" ht="19" customHeight="1" spans="1:7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" ht="21" customHeight="1" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" ht="25" customHeight="1" spans="1:7">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="19" t="s">
-        <v>258</v>
+      <c r="E31" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" ht="19" customHeight="1" spans="1:7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" ht="31" customHeight="1" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>262</v>
+      <c r="E32" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="1" spans="1:7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="1" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" ht="22" customHeight="1" spans="1:7">
-      <c r="A34" s="20">
-        <v>6</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>271</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" ht="19" customHeight="1" spans="1:7">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" ht="21" customHeight="1" spans="1:7">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" ht="25" customHeight="1" spans="1:7">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="1:7">
-      <c r="A37" s="26">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" ht="28" customHeight="1" spans="1:7">
-      <c r="A38" s="26"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" ht="21" customHeight="1" spans="1:7">
-      <c r="A39" s="26"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="1:7">
-      <c r="A40" s="26"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" ht="31" customHeight="1" spans="1:7">
-      <c r="A41" s="26"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="42" ht="22" customHeight="1" spans="1:7">
-      <c r="A42" s="26"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" ht="19" customHeight="1" spans="1:7">
-      <c r="A43" s="26"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A34"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B17"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B34"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C17"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C34"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D8:D17"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/003.python_study/006.project/001.sql_approval/016.基线审核/002.TDSQL/【需求分析：TDSQL基线审核】.xlsx
+++ b/003.python_study/006.project/001.sql_approval/016.基线审核/002.TDSQL/【需求分析：TDSQL基线审核】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="动态审核" sheetId="2" r:id="rId1"/>
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="391">
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>规则类型</t>
+  </si>
+  <si>
+    <t>工作量</t>
   </si>
   <si>
     <t>名称</t>
@@ -398,6 +401,9 @@
     <t>建议开启此规则，可避免TDSql会将中文全角引号识别为命名的一部分，执行结果与业务预期不符</t>
   </si>
   <si>
+    <t>12.2 * 2 = 24天</t>
+  </si>
+  <si>
     <t>建议使用指定数据库引擎,默认存储引擎必须为 InnoDB</t>
   </si>
   <si>
@@ -566,304 +572,295 @@
     <t>规范临时表命名，避免与业务表混淆。</t>
   </si>
   <si>
+    <t>列名设计应使用下划线分隔</t>
+  </si>
+  <si>
+    <t>使用下划线可增强命名可读性与一致性。</t>
+  </si>
+  <si>
+    <t>库名、表名、列名不得超过32个字符</t>
+  </si>
+  <si>
+    <t>控制对象命名长度，保证数据库兼容性与可维护性。</t>
+  </si>
+  <si>
+    <t>max_length=32</t>
+  </si>
+  <si>
+    <t>库名、表名、列名不得使用MySQL保留字</t>
+  </si>
+  <si>
+    <t>禁止使用保留字避免DDL执行错误。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">库名必须为英文小写且长度不超过32个字符，不得含中文或非法字符  </t>
+  </si>
+  <si>
+    <t>统一命名规范并限制库名长度可避免跨环境迁移和编码不兼容问题，确保数据库对象命名规范与可维护性。</t>
+  </si>
+  <si>
+    <t>数据库对象命名只能使用英文、下划线或数字，首字母必须是英文</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的数据对象命名规则</t>
+  </si>
+  <si>
+    <t>数据库对象名称长度不得超过128个字符</t>
+  </si>
+  <si>
+    <t>限制对象名称长度防止系统兼容问题。</t>
+  </si>
+  <si>
+    <t>max_length=128</t>
+  </si>
+  <si>
+    <t>数据库对象命名禁止使用关键字</t>
+  </si>
+  <si>
+    <t>避免发生冲突，以及混淆</t>
+  </si>
+  <si>
+    <t>数据库对象命名不建议大小写字母混合</t>
+  </si>
+  <si>
+    <t>数据库对象命名规范，不推荐采用大小写混用的形式建议词语之间使用下划线连接，提高代码可读性</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>不建议使用位图索引</t>
+  </si>
+  <si>
+    <t>位图索引不适合高并发OLTP场景，可能引发性能问题。</t>
+  </si>
+  <si>
+    <t>不使用函数索引</t>
+  </si>
+  <si>
+    <t>函数索引可能导致性能下降及迁移不兼容。</t>
+  </si>
+  <si>
+    <t>普通索引必须使用固定前缀</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的索引命名规则，具体命名规范可以自定义设置，默认提示值：idx_</t>
+  </si>
+  <si>
+    <t>检查冗余索引</t>
+  </si>
+  <si>
+    <t>清理重复索引可减少存储开销和写入锁竞争。</t>
+  </si>
+  <si>
+    <t>索引命名规则必须符合“前缀+字段”格式</t>
+  </si>
+  <si>
+    <t>统一索引命名可提升可读性与维护效率，避免重复索引。</t>
+  </si>
+  <si>
+    <t>单表索引数量不超过5个</t>
+  </si>
+  <si>
+    <t>索引过多会影响写入性能，应保持合理数量。</t>
+  </si>
+  <si>
+    <t>max_index_count=5</t>
+  </si>
+  <si>
+    <t>检查复合索引列的选择性是否合理</t>
+  </si>
+  <si>
+    <t>确保复合索引按列区分度从高到低排列以提高查询效率。</t>
+  </si>
+  <si>
+    <t>复合索引的列数量不建议超过阈值</t>
+  </si>
+  <si>
+    <t>复合索引会根据索引列数创建对应组合的索引，列数越多，创建的索引越多，每个索引都会增加磁盘空间的开销，同时增加索引维护的开销，默认值：3</t>
+  </si>
+  <si>
+    <t>索引列区分度低</t>
+  </si>
+  <si>
+    <t>建索引的列中整体的区分度低，区分度阈值不低于60%</t>
+  </si>
+  <si>
+    <t>小表行数少于1000不创建索引</t>
+  </si>
+  <si>
+    <t>小数据量表无需索引可降低维护成本。</t>
+  </si>
+  <si>
+    <t>min_rows_for_index=1000</t>
+  </si>
+  <si>
+    <t>外键字段必须建立索引</t>
+  </si>
+  <si>
+    <t>为外键添加索引以加速关联查询并防止锁表。</t>
+  </si>
+  <si>
+    <t>禁止使用MyISAM引擎</t>
+  </si>
+  <si>
+    <t>MyISAM不支持事务与行锁，在高并发环境下存在数据损坏风险，应禁用。</t>
+  </si>
+  <si>
+    <t>禁止使用存储过程、触发器、视图、游标</t>
+  </si>
+  <si>
+    <t>此类对象降低系统可移植性与可控性，增加维护复杂度，应禁用。</t>
+  </si>
+  <si>
+    <t>避免使用存储过程</t>
+  </si>
+  <si>
+    <t>复杂逻辑应在应用层实现，减少数据库耦合。</t>
+  </si>
+  <si>
+    <t>避免使用触发器</t>
+  </si>
+  <si>
+    <t>触发器不利于排错与性能优化，应避免使用。</t>
+  </si>
+  <si>
+    <t>避免使用函数</t>
+  </si>
+  <si>
+    <t>函数难以统一管理且可能降低查询效率。</t>
+  </si>
+  <si>
+    <t>不建议使用database link</t>
+  </si>
+  <si>
+    <t>跨库链接会导致事务一致性风险与性能损耗。</t>
+  </si>
+  <si>
+    <t>sequence创建时cache值应大于10000</t>
+  </si>
+  <si>
+    <t>增加序列缓存可减少磁盘IO提升生成性能。</t>
+  </si>
+  <si>
+    <t>cache_min=10000</t>
+  </si>
+  <si>
+    <t>表必须有主键且主键值禁止更新</t>
+  </si>
+  <si>
+    <t>主键唯一标识记录，防止更新主键可保证数据完整性与索引稳定性。</t>
+  </si>
+  <si>
+    <t>避免使用外键</t>
+  </si>
+  <si>
+    <t>外键虽然能够保证数据的完整性，但在高并发或分布式环境中会带来性能开销和锁依赖问题。</t>
+  </si>
+  <si>
+    <t>避免使用NUMBER类型</t>
+  </si>
+  <si>
+    <t>推荐使用MySQL兼容数据类型如DECIMAL或BIGINT以保持兼容性。</t>
+  </si>
+  <si>
+    <t>禁止使用外键约束</t>
+  </si>
+  <si>
+    <t>外键增加事务开销并限制分布式扩展，应在应用层控制数据一致性。</t>
+  </si>
+  <si>
+    <t>建表必须显式指定字符集为utf8mb4</t>
+  </si>
+  <si>
+    <t>统一字符集可避免乱码问题并兼容多语言环境。</t>
+  </si>
+  <si>
+    <t>禁止列级自定义字符集与排序规则</t>
+  </si>
+  <si>
+    <t>列级字符集与表级不一致会造成比较异常，应统一使用表级默认字符集。</t>
+  </si>
+  <si>
+    <t>货币字段禁止使用float或double</t>
+  </si>
+  <si>
+    <t>float/double存在精度误差，应使用decimal或整数存储金额。</t>
+  </si>
+  <si>
+    <t>禁止活跃表中使用BLOB、TEXT或VARCHAR(&gt;500)类型字段</t>
+  </si>
+  <si>
+    <t>大字段在频繁访问表中会严重影响缓存与I/O性能，应拆分到独立表中存储。</t>
+  </si>
+  <si>
+    <t>禁止char, varchar 类型字段字符长度总和超过阈值</t>
+  </si>
+  <si>
+    <t>使用过长或者过多的varchar，char字段可能会增加业务逻辑的复杂性。</t>
+  </si>
+  <si>
+    <t>在SQL_MODE严格模式下BLOB 和 TEXT 类型无法设置默认值，如插入数据定值，字段会被设置为NULL</t>
+  </si>
+  <si>
+    <t>使用TEXT 类型的字段建议和原表进行分拆，与原表主键单独组成另外一个表进行存放</t>
+  </si>
+  <si>
+    <t>将TEXT类型的字段与原表主键分拆成另一个表可以提高数据库性能和查询速度，减少不必要的 I/O 操作。</t>
+  </si>
+  <si>
+    <t>char长度大于20时，必须使用varchar类型</t>
+  </si>
+  <si>
+    <t>varchar是变长字段，存储空间小，可节省存储空间，同时相对较小的字段检索效率显然也要高些</t>
+  </si>
+  <si>
+    <t>表建议使用主键</t>
+  </si>
+  <si>
+    <t>主键有利于后期数据维护，且可提高SQL的执行效率</t>
+  </si>
+  <si>
+    <t>表的初始 AUTO_INCREMENT 值建议为0</t>
+  </si>
+  <si>
+    <t>创建表时AUTO_INCREMENT设置为0则自增从1开始，可以避免数据空洞。</t>
+  </si>
+  <si>
+    <t>建议数据库名称使用固定后缀结尾</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的数据库命名规则，具体命名规范可以自定义设置，默认提示值：_DB</t>
+  </si>
+  <si>
+    <t>表名、列名、索引名的长度不能大于指定字节</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的对象命名长度，具体长度可以自定义设置，默认最大长度：64</t>
+  </si>
+  <si>
+    <t>表中列数不得超过 %d 列</t>
+  </si>
+  <si>
+    <t>过度的宽表，会造成数据的大量冗余，后期对性能影响很大，限制表字段数量以保持结构清晰和性能稳定。</t>
+  </si>
+  <si>
+    <t>max_columns=255</t>
+  </si>
+  <si>
+    <t>主键包含的列数不建议超过阈值</t>
+  </si>
+  <si>
+    <t>主建中的列过多，会导致二级索引占用更多的空间，同时增加索引维护的开销；具体规则阈值可根据业务需求调整，默认值：2</t>
+  </si>
+  <si>
     <t>用户表不得建立在系统表空间</t>
   </si>
   <si>
     <t>用户业务表需存储在独立表空间中以保证安全和隔离。</t>
   </si>
   <si>
-    <t>表必须包含主键</t>
-  </si>
-  <si>
-    <t>主键能唯一标识记录，是数据库设计的基本要求。</t>
-  </si>
-  <si>
-    <t>列名设计应使用下划线分隔</t>
-  </si>
-  <si>
-    <t>使用下划线可增强命名可读性与一致性。</t>
-  </si>
-  <si>
-    <t>库名、表名、列名不得超过32个字符</t>
-  </si>
-  <si>
-    <t>控制对象命名长度，保证数据库兼容性与可维护性。</t>
-  </si>
-  <si>
-    <t>max_length=32</t>
-  </si>
-  <si>
-    <t>库名、表名、列名不得使用MySQL保留字</t>
-  </si>
-  <si>
-    <t>禁止使用保留字避免DDL执行错误。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">库名必须为英文小写且长度不超过32个字符，不得含中文或非法字符  </t>
-  </si>
-  <si>
-    <t>统一命名规范并限制库名长度可避免跨环境迁移和编码不兼容问题，确保数据库对象命名规范与可维护性。</t>
-  </si>
-  <si>
-    <t>数据库对象命名只能使用英文、下划线或数字，首字母必须是英文</t>
-  </si>
-  <si>
-    <t>通过配置该规则可以规范指定业务的数据对象命名规则</t>
-  </si>
-  <si>
-    <t>数据库对象名称长度不得超过128个字符</t>
-  </si>
-  <si>
-    <t>限制对象名称长度防止系统兼容问题。</t>
-  </si>
-  <si>
-    <t>max_length=128</t>
-  </si>
-  <si>
-    <t>数据库对象命名禁止使用关键字</t>
-  </si>
-  <si>
-    <t>避免发生冲突，以及混淆</t>
-  </si>
-  <si>
-    <t>数据库对象命名不建议大小写字母混合</t>
-  </si>
-  <si>
-    <t>数据库对象命名规范，不推荐采用大小写混用的形式建议词语之间使用下划线连接，提高代码可读性</t>
-  </si>
-  <si>
-    <t>索引规范</t>
-  </si>
-  <si>
-    <t>单表索引数量不得超过5个</t>
-  </si>
-  <si>
-    <t>过多索引会增加写入延迟与空间开销，应控制在合理范围。</t>
-  </si>
-  <si>
-    <t>max_index_count=5</t>
-  </si>
-  <si>
-    <t>不建议使用位图索引</t>
-  </si>
-  <si>
-    <t>位图索引不适合高并发OLTP场景，可能引发性能问题。</t>
-  </si>
-  <si>
-    <t>不使用函数索引</t>
-  </si>
-  <si>
-    <t>函数索引可能导致性能下降及迁移不兼容。</t>
-  </si>
-  <si>
-    <t>普通索引必须使用固定前缀</t>
-  </si>
-  <si>
-    <t>通过配置该规则可以规范指定业务的索引命名规则，具体命名规范可以自定义设置，默认提示值：idx_</t>
-  </si>
-  <si>
-    <t>检查冗余索引</t>
-  </si>
-  <si>
-    <t>清理重复索引可减少存储开销和写入锁竞争。</t>
-  </si>
-  <si>
-    <t>索引命名规则必须符合“前缀+字段”格式</t>
-  </si>
-  <si>
-    <t>统一索引命名可提升可读性与维护效率，避免重复索引。</t>
-  </si>
-  <si>
-    <t>单表索引数量不超过5个</t>
-  </si>
-  <si>
-    <t>索引过多会影响写入性能，应保持合理数量。</t>
-  </si>
-  <si>
-    <t>检查复合索引列的选择性是否合理</t>
-  </si>
-  <si>
-    <t>确保复合索引按列区分度从高到低排列以提高查询效率。</t>
-  </si>
-  <si>
-    <t>复合索引的列数量不建议超过阈值</t>
-  </si>
-  <si>
-    <t>复合索引会根据索引列数创建对应组合的索引，列数越多，创建的索引越多，每个索引都会增加磁盘空间的开销，同时增加索引维护的开销，默认值：3</t>
-  </si>
-  <si>
-    <t>索引列区分度低</t>
-  </si>
-  <si>
-    <t>建索引的列中整体的区分度低，区分度阈值不低于60%</t>
-  </si>
-  <si>
-    <t>小表行数少于1000不创建索引</t>
-  </si>
-  <si>
-    <t>小数据量表无需索引可降低维护成本。</t>
-  </si>
-  <si>
-    <t>min_rows_for_index=1000</t>
-  </si>
-  <si>
-    <t>外键字段必须建立索引</t>
-  </si>
-  <si>
-    <t>为外键添加索引以加速关联查询并防止锁表。</t>
-  </si>
-  <si>
-    <t>禁止使用MyISAM引擎</t>
-  </si>
-  <si>
-    <t>MyISAM不支持事务与行锁，在高并发环境下存在数据损坏风险，应禁用。</t>
-  </si>
-  <si>
-    <t>禁止使用存储过程、触发器、视图、游标</t>
-  </si>
-  <si>
-    <t>此类对象降低系统可移植性与可控性，增加维护复杂度，应禁用。</t>
-  </si>
-  <si>
-    <t>避免使用存储过程</t>
-  </si>
-  <si>
-    <t>复杂逻辑应在应用层实现，减少数据库耦合。</t>
-  </si>
-  <si>
-    <t>避免使用触发器</t>
-  </si>
-  <si>
-    <t>触发器不利于排错与性能优化，应避免使用。</t>
-  </si>
-  <si>
-    <t>避免使用函数</t>
-  </si>
-  <si>
-    <t>函数难以统一管理且可能降低查询效率。</t>
-  </si>
-  <si>
-    <t>不建议使用database link</t>
-  </si>
-  <si>
-    <t>跨库链接会导致事务一致性风险与性能损耗。</t>
-  </si>
-  <si>
-    <t>sequence创建时cache值应大于10000</t>
-  </si>
-  <si>
-    <t>增加序列缓存可减少磁盘IO提升生成性能。</t>
-  </si>
-  <si>
-    <t>cache_min=10000</t>
-  </si>
-  <si>
-    <t>表必须有主键且主键值禁止更新</t>
-  </si>
-  <si>
-    <t>主键唯一标识记录，防止更新主键可保证数据完整性与索引稳定性。</t>
-  </si>
-  <si>
-    <t>避免使用外键</t>
-  </si>
-  <si>
-    <t>外键虽然能够保证数据的完整性，但在高并发或分布式环境中会带来性能开销和锁依赖问题。</t>
-  </si>
-  <si>
-    <t>避免使用NUMBER类型</t>
-  </si>
-  <si>
-    <t>推荐使用MySQL兼容数据类型如DECIMAL或BIGINT以保持兼容性。</t>
-  </si>
-  <si>
-    <t>禁止使用外键约束</t>
-  </si>
-  <si>
-    <t>外键增加事务开销并限制分布式扩展，应在应用层控制数据一致性。</t>
-  </si>
-  <si>
-    <t>建表必须显式指定字符集为utf8mb4</t>
-  </si>
-  <si>
-    <t>统一字符集可避免乱码问题并兼容多语言环境。</t>
-  </si>
-  <si>
-    <t>禁止列级自定义字符集与排序规则</t>
-  </si>
-  <si>
-    <t>列级字符集与表级不一致会造成比较异常，应统一使用表级默认字符集。</t>
-  </si>
-  <si>
-    <t>货币字段禁止使用float或double</t>
-  </si>
-  <si>
-    <t>float/double存在精度误差，应使用decimal或整数存储金额。</t>
-  </si>
-  <si>
-    <t>禁止活跃表中使用BLOB、TEXT或VARCHAR(&gt;500)类型字段</t>
-  </si>
-  <si>
-    <t>大字段在频繁访问表中会严重影响缓存与I/O性能，应拆分到独立表中存储。</t>
-  </si>
-  <si>
-    <t>禁止char, varchar 类型字段字符长度总和超过阈值</t>
-  </si>
-  <si>
-    <t>使用过长或者过多的varchar，char字段可能会增加业务逻辑的复杂性。</t>
-  </si>
-  <si>
-    <t>在SQL_MODE严格模式下BLOB 和 TEXT 类型无法设置默认值，如插入数据定值，字段会被设置为NULL</t>
-  </si>
-  <si>
-    <t>使用TEXT 类型的字段建议和原表进行分拆，与原表主键单独组成另外一个表进行存放</t>
-  </si>
-  <si>
-    <t>将TEXT类型的字段与原表主键分拆成另一个表可以提高数据库性能和查询速度，减少不必要的 I/O 操作。</t>
-  </si>
-  <si>
-    <t>char长度大于20时，必须使用varchar类型</t>
-  </si>
-  <si>
-    <t>varchar是变长字段，存储空间小，可节省存储空间，同时相对较小的字段检索效率显然也要高些</t>
-  </si>
-  <si>
-    <t>表建议使用主键</t>
-  </si>
-  <si>
-    <t>主键有利于后期数据维护，且可提高SQL的执行效率</t>
-  </si>
-  <si>
-    <t>表的初始 AUTO_INCREMENT 值建议为0</t>
-  </si>
-  <si>
-    <t>创建表时AUTO_INCREMENT设置为0则自增从1开始，可以避免数据空洞。</t>
-  </si>
-  <si>
-    <t>建议数据库名称使用固定后缀结尾</t>
-  </si>
-  <si>
-    <t>通过配置该规则可以规范指定业务的数据库命名规则，具体命名规范可以自定义设置，默认提示值：_DB</t>
-  </si>
-  <si>
-    <t>表名、列名、索引名的长度不能大于指定字节</t>
-  </si>
-  <si>
-    <t>通过配置该规则可以规范指定业务的对象命名长度，具体长度可以自定义设置，默认最大长度：64</t>
-  </si>
-  <si>
-    <t>表中列数不得超过 %d 列</t>
-  </si>
-  <si>
-    <t>过度的宽表，会造成数据的大量冗余，后期对性能影响很大，限制表字段数量以保持结构清晰和性能稳定。</t>
-  </si>
-  <si>
-    <t>max_columns=255</t>
-  </si>
-  <si>
-    <t>主键包含的列数不建议超过阈值</t>
-  </si>
-  <si>
-    <t>主建中的列过多，会导致二级索引占用更多的空间，同时增加索引维护的开销；具体规则阈值可根据业务需求调整，默认值：2</t>
+    <t>28.2 *1.5 = 42天</t>
   </si>
   <si>
     <t>规范描述</t>
@@ -1221,10 +1218,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1770,137 +1775,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1940,12 +1945,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1955,13 +1966,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,30 +2313,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.6194690265487" customWidth="1"/>
-    <col min="2" max="2" width="22.5752212389381" customWidth="1"/>
-    <col min="3" max="3" width="51.9646017699115" customWidth="1"/>
-    <col min="4" max="4" width="90.0796460176991" customWidth="1"/>
-    <col min="5" max="5" width="52.2477876106195" customWidth="1"/>
-    <col min="6" max="6" width="14.8761061946903" customWidth="1"/>
+    <col min="2" max="3" width="22.5752212389381" customWidth="1"/>
+    <col min="4" max="4" width="51.9646017699115" customWidth="1"/>
+    <col min="5" max="5" width="90.0796460176991" customWidth="1"/>
+    <col min="6" max="6" width="52.2477876106195" customWidth="1"/>
+    <col min="7" max="7" width="14.8761061946903" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2319,549 +2345,603 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="56" customHeight="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="56" customHeight="1" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="56" customHeight="1" spans="1:5">
+      <c r="E2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" ht="56" customHeight="1" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="40.5" spans="1:5">
+      <c r="E3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="40.5" spans="1:5">
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="27" spans="1:5">
+      <c r="E9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" ht="27" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" ht="40.5" spans="1:5">
+      <c r="E10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" ht="27" spans="1:5">
+      <c r="E12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" ht="27" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" ht="27" spans="1:5">
+      <c r="E14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" ht="27" spans="1:6">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" ht="27" spans="1:5">
+      <c r="E16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" ht="27" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" ht="27" spans="1:5">
+      <c r="E17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" ht="27" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" ht="40.5" spans="1:5">
+      <c r="E18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="40.5" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" ht="27" spans="1:5">
+      <c r="E19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" ht="27" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" ht="40.5" spans="1:5">
+      <c r="E20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" ht="40.5" spans="1:6">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" ht="27" spans="1:5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" ht="27" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" ht="27" spans="1:5">
+      <c r="E23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" ht="27" spans="1:6">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" ht="27" spans="1:5">
+      <c r="E24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" ht="27" spans="1:6">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" ht="27" spans="1:5">
+      <c r="E26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" ht="27" spans="1:6">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" ht="27" spans="1:5">
+      <c r="E30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" ht="27" spans="1:6">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" ht="27" spans="1:5">
+      <c r="E31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" ht="27" spans="1:6">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" ht="27" spans="1:5">
+      <c r="E32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" ht="27" spans="1:6">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" ht="27" spans="1:5">
+      <c r="E33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" ht="27" spans="1:6">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" ht="27" spans="1:5">
+      <c r="E34" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" ht="27" spans="1:6">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" ht="17" customHeight="1" spans="1:5">
+      <c r="E38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" ht="17" customHeight="1" spans="1:6">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="5" t="s">
-        <v>79</v>
+      <c r="C39" s="3">
+        <v>0.5</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" ht="19" customHeight="1" spans="1:5">
+      <c r="E39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" ht="19" customHeight="1" spans="1:6">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="5" t="s">
-        <v>81</v>
+      <c r="C40" s="3">
+        <v>0.5</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D41" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" ht="17" customHeight="1" spans="1:5">
+      <c r="E41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" ht="17" customHeight="1" spans="1:6">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="5" t="s">
-        <v>85</v>
+      <c r="C42" s="3">
+        <v>0.5</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" ht="25" customHeight="1" spans="1:5">
+      <c r="E42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" ht="25" customHeight="1" spans="1:6">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="5" t="s">
-        <v>87</v>
+      <c r="C43" s="3">
+        <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>88</v>
@@ -2869,221 +2949,261 @@
       <c r="E43" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" ht="27" customHeight="1" spans="1:5">
+      <c r="F43" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" ht="27" customHeight="1" spans="1:6">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="5" t="s">
-        <v>90</v>
+      <c r="C44" s="3">
+        <v>0.5</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="6" t="s">
-        <v>92</v>
+      <c r="C45" s="3">
+        <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" ht="27" spans="1:5">
+      <c r="E46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:6">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="6" t="s">
-        <v>97</v>
+      <c r="C47" s="3">
+        <v>0.5</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="6" t="s">
-        <v>99</v>
+      <c r="C48" s="3">
+        <v>0.5</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="6" t="s">
-        <v>101</v>
+      <c r="C50" s="3">
+        <v>0.5</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5">
+        <v>104</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="6" t="s">
-        <v>107</v>
+      <c r="B53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.5</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5">
+        <v>111</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>110</v>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3">
+        <v>0.5</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="C55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="C57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="C58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="27" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B53"/>
-    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B2:B52"/>
+    <mergeCell ref="B53:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3094,28 +3214,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A75"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="22.9026548672566" customWidth="1"/>
-    <col min="3" max="3" width="49.5044247787611" customWidth="1"/>
-    <col min="4" max="4" width="70.5132743362832" customWidth="1"/>
-    <col min="5" max="5" width="44.3716814159292" customWidth="1"/>
+    <col min="2" max="3" width="22.9026548672566" customWidth="1"/>
+    <col min="4" max="4" width="49.5044247787611" customWidth="1"/>
+    <col min="5" max="5" width="70.5132743362832" customWidth="1"/>
+    <col min="6" max="6" width="44.3716814159292" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3124,1005 +3244,1167 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="13">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13">
+      <c r="E2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13">
+      <c r="E6" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" ht="27" spans="1:5">
-      <c r="A9" s="13">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="13">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" ht="27" spans="1:5">
-      <c r="A11" s="13">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" ht="27" spans="1:6">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="13">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" ht="27" spans="1:6">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" ht="27" spans="1:5">
-      <c r="A15" s="13">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" ht="27" spans="1:6">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" ht="27" spans="1:5">
-      <c r="A16" s="13">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" ht="27" spans="1:6">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="13">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>155</v>
+      <c r="B17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.3</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="13">
+        <v>158</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="10" t="s">
-        <v>158</v>
+      <c r="B18" s="19"/>
+      <c r="C18" s="14">
+        <v>0.3</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="13">
+        <v>160</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="10" t="s">
-        <v>160</v>
+      <c r="B19" s="19"/>
+      <c r="C19" s="14">
+        <v>0.3</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="13">
+        <v>162</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="10" t="s">
-        <v>162</v>
+      <c r="B20" s="19"/>
+      <c r="C20" s="14">
+        <v>0.3</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="13">
+        <v>164</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="10" t="s">
-        <v>164</v>
+      <c r="B21" s="19"/>
+      <c r="C21" s="14">
+        <v>0.3</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13">
+        <v>166</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="10" t="s">
-        <v>166</v>
+      <c r="B22" s="19"/>
+      <c r="C22" s="14">
+        <v>0.3</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13">
+        <v>168</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="10" t="s">
-        <v>168</v>
+      <c r="B23" s="19"/>
+      <c r="C23" s="14">
+        <v>0.3</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="13">
+        <v>170</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="10" t="s">
-        <v>170</v>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14">
+        <v>0.3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13">
+        <v>172</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="10" t="s">
-        <v>172</v>
+      <c r="B25" s="19"/>
+      <c r="C25" s="14">
+        <v>0.3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="13">
+        <v>174</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="10" t="s">
-        <v>174</v>
+      <c r="B26" s="19"/>
+      <c r="C26" s="14">
+        <v>0.3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="13">
+        <v>176</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="10" t="s">
-        <v>176</v>
+      <c r="B27" s="19"/>
+      <c r="C27" s="14">
+        <v>0.3</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="10" t="s">
         <v>178</v>
       </c>
+      <c r="E27" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="14">
+        <v>29</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="14">
+        <v>0.3</v>
+      </c>
       <c r="D28" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="13">
-        <v>28</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="10" t="s">
         <v>180</v>
       </c>
+      <c r="E28" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14">
+        <v>30</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="14">
+        <v>0.3</v>
+      </c>
       <c r="D29" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="E29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="14">
+        <v>31</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="14">
+        <v>0.3</v>
+      </c>
       <c r="D30" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="13">
-        <v>30</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" ht="27" spans="1:6">
+      <c r="A31" s="14">
+        <v>32</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" ht="27" spans="1:5">
-      <c r="A33" s="13">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="19" t="s">
+    </row>
+    <row r="32" ht="27" spans="1:6">
+      <c r="A32" s="14">
+        <v>33</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="E32" s="23" t="s">
         <v>190</v>
       </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14">
+        <v>34</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="E33" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:5">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="13">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>193</v>
       </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14">
+        <v>35</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" ht="27" spans="1:6">
+      <c r="A35" s="14">
+        <v>36</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="14">
+        <v>0.5</v>
+      </c>
       <c r="D35" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="13">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="10" t="s">
         <v>196</v>
       </c>
+      <c r="E35" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14">
+        <v>38</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.5</v>
+      </c>
       <c r="D36" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" ht="27" spans="1:5">
-      <c r="A37" s="13">
-        <v>36</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="13">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="E36" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14">
+        <v>39</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="E37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" ht="27" spans="1:6">
+      <c r="A38" s="14">
+        <v>40</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="13">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="10" t="s">
+      <c r="E38" s="23" t="s">
         <v>204</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="14">
+        <v>41</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14">
+        <v>0.5</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="14">
+        <v>42</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" ht="27" spans="1:5">
-      <c r="A41" s="13">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="10" t="s">
+      <c r="E40" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14">
+        <v>43</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="13">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="F41" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14">
+        <v>44</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
       <c r="D42" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="13">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E42" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="13">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="10" t="s">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" ht="27" spans="1:6">
+      <c r="A43" s="14">
+        <v>45</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>214</v>
       </c>
+      <c r="E43" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14">
+        <v>46</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14">
+        <v>0.5</v>
+      </c>
       <c r="D44" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="13">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="10" t="s">
         <v>216</v>
       </c>
+      <c r="E44" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="14">
+        <v>47</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14">
+        <v>0.5</v>
+      </c>
       <c r="D45" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" ht="27" spans="1:5">
-      <c r="A46" s="13">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="E45" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="13">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="19" t="s">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="14">
+        <v>48</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="13">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="14">
+        <v>49</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E47" s="23" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="13">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="10" t="s">
+      <c r="F47" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="14">
+        <v>50</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>225</v>
       </c>
+      <c r="E48" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="14">
+        <v>51</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="14">
+        <v>0.5</v>
+      </c>
       <c r="D49" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="13">
-        <v>49</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="E49" s="10" t="s">
         <v>228</v>
       </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="14">
+        <v>52</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="E50" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="13">
-        <v>50</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="13">
-        <v>51</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="10" t="s">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="14">
+        <v>53</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>231</v>
       </c>
+      <c r="E51" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="14">
+        <v>54</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="14">
+        <v>0.5</v>
+      </c>
       <c r="D52" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="13">
-        <v>52</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="10" t="s">
         <v>233</v>
       </c>
+      <c r="E52" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="14">
+        <v>55</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="14">
+        <v>0.5</v>
+      </c>
       <c r="D53" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="13">
-        <v>53</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="13">
-        <v>54</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>237</v>
       </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="14">
+        <v>56</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" ht="27" spans="1:6">
+      <c r="A55" s="14">
+        <v>57</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="14">
+        <v>0.5</v>
+      </c>
       <c r="D55" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="13">
-        <v>55</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="23"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="14">
+        <v>58</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="14">
+        <v>0.5</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="13">
-        <v>56</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="E56" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" ht="27" spans="1:5">
-      <c r="A58" s="13">
-        <v>57</v>
-      </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="10" t="s">
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="14">
+        <v>59</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="E57" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="13">
-        <v>58</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="10" t="s">
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="14">
+        <v>60</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="E58" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="E59" s="19"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="13">
-        <v>59</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="10" t="s">
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="14">
+        <v>61</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="E59" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E60" s="19"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="13">
-        <v>60</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="19" t="s">
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="14">
+        <v>62</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="E60" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="19" t="s">
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="14">
+        <v>63</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="E61" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="19" t="s">
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="14">
+        <v>64</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="E62" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="19" t="s">
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" ht="27" spans="1:6">
+      <c r="A63" s="14">
+        <v>65</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" ht="27" spans="1:6">
+      <c r="A64" s="14">
+        <v>66</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="19" t="s">
+      <c r="E64" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="F64" s="23"/>
+    </row>
+    <row r="65" ht="27" spans="1:6">
+      <c r="A65" s="14">
+        <v>67</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" ht="27" spans="1:5">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="19" t="s">
+      <c r="E65" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E66" s="19"/>
-    </row>
-    <row r="67" ht="27" spans="1:5">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="19" t="s">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" ht="27" spans="1:6">
+      <c r="A66" s="14">
+        <v>68</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="14">
+        <v>69</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="14">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="E67" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E67" s="19"/>
-    </row>
-    <row r="68" ht="27" spans="1:5">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="6" t="s">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="14">
+        <v>70</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="E68" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" ht="27" spans="1:5">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="10" t="s">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" ht="27" spans="1:6">
+      <c r="A69" s="14">
+        <v>71</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>265</v>
       </c>
+      <c r="E69" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" ht="27" spans="1:6">
+      <c r="A70" s="14">
+        <v>72</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="14">
+        <v>1</v>
+      </c>
       <c r="D70" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E70" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" ht="27" spans="1:5">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="10" t="s">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" ht="27" spans="1:6">
+      <c r="A71" s="14">
+        <v>73</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="14">
+        <v>1</v>
+      </c>
+      <c r="D71" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="E71" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" ht="27" spans="1:5">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="10" t="s">
+      <c r="F71" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D73" s="19" t="s">
+    </row>
+    <row r="72" ht="27" spans="1:6">
+      <c r="A72" s="14">
+        <v>74</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" ht="27" spans="1:5">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="20" t="s">
+      <c r="E72" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="26"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="75" ht="27" spans="1:5">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="10" t="s">
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="E75" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B16"/>
-    <mergeCell ref="B17:B37"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="B17:B35"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="B47:B73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4135,8 +4417,8 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4158,19 +4440,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" ht="64" customHeight="1" spans="1:7">
@@ -4178,22 +4460,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="3" ht="67" customHeight="1" spans="1:7">
@@ -4202,13 +4484,13 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="4" ht="68" customHeight="1" spans="1:7">
@@ -4216,22 +4498,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:7">
@@ -4240,13 +4522,13 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:7">
@@ -4255,13 +4537,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -4270,13 +4552,13 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:7">
@@ -4284,22 +4566,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="F8" s="8">
         <v>50000000</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7">
@@ -4308,13 +4590,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:7">
@@ -4323,13 +4605,13 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:7">
@@ -4338,13 +4620,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:7">
@@ -4353,13 +4635,13 @@
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:7">
@@ -4368,13 +4650,13 @@
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:7">
@@ -4383,13 +4665,13 @@
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:7">
@@ -4398,13 +4680,13 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7">
@@ -4413,13 +4695,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:7">
@@ -4428,11 +4710,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:7">
@@ -4440,22 +4722,22 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:7">
@@ -4464,13 +4746,13 @@
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:7">
@@ -4478,22 +4760,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:7">
@@ -4502,13 +4784,13 @@
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:7">
@@ -4517,13 +4799,13 @@
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:7">
@@ -4532,13 +4814,13 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:7">
@@ -4547,13 +4829,13 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="25" ht="22" customHeight="1" spans="1:7">
@@ -4561,22 +4843,22 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:7">
@@ -4585,13 +4867,13 @@
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:7">
@@ -4600,13 +4882,13 @@
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:7">
@@ -4614,22 +4896,22 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:7">
@@ -4638,13 +4920,13 @@
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="1:7">
@@ -4653,13 +4935,13 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1" spans="1:7">
@@ -4668,13 +4950,13 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="32" ht="31" customHeight="1" spans="1:7">
@@ -4683,13 +4965,13 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="1" spans="1:7">
@@ -4698,13 +4980,13 @@
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="34" ht="19" customHeight="1" spans="1:7">
@@ -4713,13 +4995,13 @@
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
